--- a/01. Lessons/Clase 3. Modelos dinámicos/ALMON.xlsx
+++ b/01. Lessons/Clase 3. Modelos dinámicos/ALMON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometría/01. Lessons/Clase 3. Modelos dinámicos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometrics I/01. Lessons/Clase 3. Modelos dinámicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_BF17D4DE9D1891DC124183150DD3F488107B9639" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261A3B9D-06ED-4078-8EED-9579A5A7C53F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_BF17D4DE9D1891DC124183150DD3F488107B9639" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D39A96-BA95-4003-A374-70513AF24D2A}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -541,11 +540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -827,7 +826,7 @@
         <v>-19.282658853038868</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N16" si="4">M5*M5</f>
+        <f t="shared" ref="N5:N15" si="4">M5*M5</f>
         <v>371.82093244267821</v>
       </c>
     </row>
@@ -1663,11 +1662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
